--- a/testData/AutomationToolComparision.xlsx
+++ b/testData/AutomationToolComparision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiva/Documents/FreshersTraining/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576A16E7-0D50-8A47-86AF-3C868B1970CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BE2110-81BD-4645-86E6-096A0CAD4A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15420" xr2:uid="{C53FF009-9C53-BC4E-B816-C053C1257668}"/>
   </bookViews>
@@ -939,7 +939,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
